--- a/src/data/cgmemory/list.xlsx
+++ b/src/data/cgmemory/list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\private\Avalanches-master\src\data\cgmemory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CA81D4-2AEA-4071-980F-9945B03B96BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90339A7-DE36-4C05-8376-641EF28D2C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ハロ" sheetId="1" r:id="rId1"/>
+    <sheet name="2番目のCG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>回想</t>
     <rPh sb="0" eb="2">
@@ -383,12 +384,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="30.19921875" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -420,4 +421,48 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA5BA14-A1C3-455A-BE10-E47271A4D69E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/data/cgmemory/list.xlsx
+++ b/src/data/cgmemory/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\private\Avalanches-master\src\data\cgmemory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90339A7-DE36-4C05-8376-641EF28D2C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F088CA-2523-4FE8-8F2E-CA200DFACA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>回想</t>
     <rPh sb="0" eb="2">
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>ModMessageTest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムネイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thum_CG_A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thum_CG_B</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -381,39 +393,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="36">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="36">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/data/cgmemory/list.xlsx
+++ b/src/data/cgmemory/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\private\Avalanches-master\src\data\cgmemory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F088CA-2523-4FE8-8F2E-CA200DFACA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0730B4-3D42-4AA6-87FE-180F5613793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ハロ" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>回想</t>
     <rPh sb="0" eb="2">
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -447,39 +447,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA5BA14-A1C3-455A-BE10-E47271A4D69E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="36">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="36">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/data/cgmemory/list.xlsx
+++ b/src/data/cgmemory/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\private\Avalanches-master\src\data\cgmemory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0730B4-3D42-4AA6-87FE-180F5613793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37335FC-4EF2-403F-8A31-B42415D8CB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ハロ" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t>回想</t>
     <rPh sb="0" eb="2">
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -439,6 +439,94 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="36">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -449,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA5BA14-A1C3-455A-BE10-E47271A4D69E}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
